--- a/data/trans_dic/P40B_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P40B_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios</t>
+          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>47,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>46,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>43,87%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>50,89%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>46,05%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44,58%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>44,89%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,49; 46,76</t>
+          <t>38,5; 55,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,07; 44,28</t>
+          <t>36,16; 54,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,11; 41,93</t>
+          <t>32,89; 52,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,37; 51,93</t>
+          <t>28,76; 52,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,57; 47,02</t>
+          <t>46,45; 59,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,61; 46,28</t>
+          <t>39,58; 53,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,38; 47,21</t>
+          <t>38,65; 52,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,81; 44,26</t>
+          <t>38,44; 53,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,82; 42,64</t>
+          <t>45,39; 56,15</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>40,49; 51,26</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>38,33; 49,92</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>37,48; 50,91</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>35,97%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34,68%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33,7%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,01; 37,65</t>
+          <t>23,0; 38,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,57; 37,68</t>
+          <t>24,74; 43,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,95; 36,35</t>
+          <t>22,9; 40,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,35; 37,15</t>
+          <t>21,61; 38,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,47; 34,51</t>
+          <t>32,56; 47,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,97; 32,99</t>
+          <t>27,3; 42,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,87; 35,13</t>
+          <t>26,41; 41,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,08; 33,93</t>
+          <t>28,35; 45,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,19; 32,89</t>
+          <t>30,6; 41,3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29,03; 40,65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>27,47; 38,81</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>27,82; 39,62</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>40,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>29,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20,31%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 34,52</t>
+          <t>5,96; 40,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 27,76</t>
+          <t>0,0; 28,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 26,49</t>
+          <t>0,0; 25,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,03; 40,71</t>
+          <t>2,76; 30,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,71; 39,15</t>
+          <t>23,95; 57,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,12; 38,43</t>
+          <t>19,18; 50,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,23; 32,99</t>
+          <t>18,16; 49,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 28,65</t>
+          <t>15,45; 46,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 27,35</t>
+          <t>16,18; 41,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 32,79</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 31,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,55; 31,6</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>47,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>39,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>42,65%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38,91%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37,35%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>37,88%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,06; 38,37</t>
+          <t>31,55; 43,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,26; 36,81</t>
+          <t>30,44; 42,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,7; 35,31</t>
+          <t>28,24; 40,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,78; 42,42</t>
+          <t>27,27; 40,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,99; 38,4</t>
+          <t>42,18; 51,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,71; 37,04</t>
+          <t>36,04; 45,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 39,34</t>
+          <t>35,04; 44,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,76; 36,3</t>
+          <t>35,61; 46,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,21; 34,7</t>
+          <t>38,82; 46,36</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>35,09; 42,92</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33,41; 41,24</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>33,09; 42,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>174631</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>168410</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>166804</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>224881</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>233017</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>194118</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>184599</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>259735</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>407648</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>362528</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>351403</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>484617</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>140823; 202439</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>132390; 199135</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>125241; 200251</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>148390; 269370</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>202224; 259991</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>166667; 224472</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>157498; 214646</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>216663; 302702</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>363646; 449795</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>318746; 403497</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>302129; 393487</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>404666; 549567</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>94322</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>107861</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>102500</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>124944</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>141229</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>119890</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>115173</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>158563</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>235551</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>227751</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>217673</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>283507</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>70086; 118352</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>78764; 137171</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>73869; 129668</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>89094; 159963</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>113986; 167093</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>92402; 144366</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>88464; 139792</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>121599; 195328</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>200346; 270409</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>190665; 266951</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>180642; 255233</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>234063; 333337</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15369</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6106</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6079</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14013</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33751</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28241</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27668</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32841</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>49120</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34347</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33747</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>46854</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5059; 34688</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22935</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22217</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3291; 36704</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19788; 47748</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15639; 41423</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14990; 40970</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17208; 51252</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27091; 68658</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18308; 52846</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17527; 52645</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24333; 72913</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>284322</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>282378</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>275383</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>363838</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>407998</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>342249</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>327440</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>451139</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>692319</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>624627</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>602823</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>814978</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>238265; 325774</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>232593; 323130</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>222849; 319405</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>285665; 423610</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>366112; 449043</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>303126; 382931</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>289107; 366565</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>393078; 509084</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>630148; 752580</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>563213; 688996</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>539250; 665667</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>711913; 905307</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
